--- a/17. LinkedIn Learning/01. Microsoft Excel/01. Master Microsoft Excel - Learning Path/06. Excel - PivotTables in depth/Material/Ex_Files_Excel_Pivot_Tables_Depth/Exercise Files/Chapter06/Filter_06_03.xlsx
+++ b/17. LinkedIn Learning/01. Microsoft Excel/01. Master Microsoft Excel - Learning Path/06. Excel - PivotTables in depth/Material/Ex_Files_Excel_Pivot_Tables_Depth/Exercise Files/Chapter06/Filter_06_03.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Curtis\Documents\LinkedIn Learning\Excel for O365 PivotTables\Chapter06\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javier García\Downloads\Excel\Learning path 01\06\Modulo 02\Ex_Files_Excel_Pivot_Tables_Depth\Ex_Files_Excel_Pivot_Tables_Depth\Exercise Files\Chapter06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37C8762-560C-4EBF-A6B1-88FDDB0DB4FC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF689E59-03E7-4908-A408-7122F1C6EE7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7350" xr2:uid="{2E5CF44E-A048-4B93-98D9-BFC521C6FDBF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2E5CF44E-A048-4B93-98D9-BFC521C6FDBF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
   </definedNames>
   <calcPr calcId="179021" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="18" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="250">
   <si>
     <t>OrderNum</t>
   </si>
@@ -785,13 +785,13 @@
     <t>Category</t>
   </si>
   <si>
-    <t>Row Labels</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
     <t>Sum of Quantity</t>
+  </si>
+  <si>
+    <t>Etiquetas de fila</t>
+  </si>
+  <si>
+    <t>Total general</t>
   </si>
 </sst>
 </file>
@@ -855,10 +855,10 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -885,7 +885,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -923,7 +923,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-GT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -943,6 +943,44 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -977,53 +1015,29 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$4:$A$10</c:f>
+              <c:f>Sheet1!$A$4:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>Batteries</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Grid Tie Inverters</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Landscape lighting</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Lightbulbs</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>Solar panels</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Wind harvester</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$10</c:f>
+              <c:f>Sheet1!$B$4:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>486</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>207</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>281</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>739</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>596</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>405</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1085,7 +1099,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="509668968"/>
@@ -1141,7 +1155,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="509668640"/>
@@ -1180,7 +1194,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-GT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1217,7 +1231,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-GT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5201,8 +5215,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4DEE7F2C-2547-4874-A996-21A479E4A330}" name="PivotTable4" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4DEE7F2C-2547-4874-A996-21A479E4A330}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -5246,11 +5260,11 @@
     <pivotField axis="axisRow" showAll="0">
       <items count="7">
         <item x="2"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="3"/>
+        <item h="1" x="1"/>
+        <item h="1" x="5"/>
+        <item h="1" x="3"/>
         <item x="0"/>
-        <item x="4"/>
+        <item h="1" x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -5263,24 +5277,12 @@
   <rowFields count="1">
     <field x="4"/>
   </rowFields>
-  <rowItems count="7">
+  <rowItems count="3">
     <i>
       <x/>
     </i>
     <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
       <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
     </i>
     <i t="grand">
       <x/>
@@ -5338,7 +5340,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5634,24 +5636,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3D49653-5E96-44B9-9360-CC4240B9B8F5}">
-  <dimension ref="A3:B10"/>
+  <dimension ref="A3:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B3" t="s">
         <v>247</v>
-      </c>
-      <c r="B3" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -5664,50 +5666,18 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B5" s="2">
-        <v>207</v>
+        <v>596</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>212</v>
+        <v>249</v>
       </c>
       <c r="B6" s="2">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B7" s="2">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="B8" s="2">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="B9" s="2">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="B10" s="2">
-        <v>2714</v>
+        <v>1082</v>
       </c>
     </row>
   </sheetData>
@@ -5722,7 +5692,7 @@
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" customWidth="1"/>
     <col min="2" max="2" width="18.140625" customWidth="1"/>
